--- a/Data_frame/balancos_definitivos/MOVI3.xlsx
+++ b/Data_frame/balancos_definitivos/MOVI3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC80"/>
+  <dimension ref="A1:AN80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,6 +579,61 @@
           <t>30/09/2021</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2022</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2022</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>30/09/2022</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2023</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>30/09/2023</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -668,7 +723,40 @@
         <v>14204670.976</v>
       </c>
       <c r="AC2" t="n">
-        <v>717854.976</v>
+        <v>19735812.096</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>21715851.264</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>20955435.008</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>23372857.344</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>26410231.808</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>26248880.128</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>22682038.272</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>21069948.928</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>21734567.936</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>25119492.096</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>26185576.448</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>27684239.36</v>
       </c>
     </row>
     <row r="3">
@@ -759,7 +847,40 @@
         <v>6540319.232</v>
       </c>
       <c r="AC3" t="n">
-        <v>595881.024</v>
+        <v>9415675.903999999</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>9146958.847999999</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>7684007.936</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>8093775.872</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10231792.64</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>9440251.903999999</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>6321604.096</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>4977147.904</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>4746493.952</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>5429324.8</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>6327608.832</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>6866847.744</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +971,40 @@
         <v>2816548.096</v>
       </c>
       <c r="AC4" t="n">
-        <v>544286.976</v>
+        <v>4643996.16</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>146030</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>903521.024</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>919646.0159999999</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>401836.992</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>551764.992</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>486982.016</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>487375.008</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>356840.992</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>133394</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>475273.984</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>674841.024</v>
       </c>
     </row>
     <row r="5">
@@ -941,7 +1095,40 @@
         <v>2740207.104</v>
       </c>
       <c r="AC5" t="n">
-        <v>24</v>
+        <v>3630317.056</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7640422.912</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>4747062.784</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>4803049.984</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>7393619.968</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6275770.88</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>3436116.992</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>2090491.008</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1654285.952</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2865358.08</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>2736012.032</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3010161.92</v>
       </c>
     </row>
     <row r="6">
@@ -1032,7 +1219,40 @@
         <v>550854.976</v>
       </c>
       <c r="AC6" t="n">
-        <v>47175</v>
+        <v>631553.9840000001</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>879884.992</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1075725.056</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1284045.952</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1044108.992</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1173853.056</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1024971.008</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1099133.056</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1309929.984</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1343672.064</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1541187.968</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1684002.048</v>
       </c>
     </row>
     <row r="7">
@@ -1125,6 +1345,39 @@
       <c r="AC7" t="n">
         <v>0</v>
       </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1216,6 +1469,39 @@
       <c r="AC8" t="n">
         <v>0</v>
       </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1305,7 +1591,40 @@
         <v>67365</v>
       </c>
       <c r="AC9" t="n">
-        <v>2369</v>
+        <v>95823</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>109243</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>180562</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>289876.992</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>357576</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>174084</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>184787.008</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>256498</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>329015.008</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>385740</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>390644</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>355432</v>
       </c>
     </row>
     <row r="10">
@@ -1396,7 +1715,40 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>1401</v>
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1487,7 +1839,40 @@
         <v>365344</v>
       </c>
       <c r="AC11" t="n">
-        <v>625</v>
+        <v>413985.984</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>371377.984</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>777137.024</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>797156.992</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1034651.008</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1264779.008</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1188747.008</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1043651.008</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1096422.016</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>701161.024</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1184491.008</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1142411.008</v>
       </c>
     </row>
     <row r="12">
@@ -1578,7 +1963,40 @@
         <v>217522</v>
       </c>
       <c r="AC12" t="n">
-        <v>70848</v>
+        <v>293627.008</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>252630</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>254622</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>279353.984</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>676243.008</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>677534.976</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>757872</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>709256</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>661560</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>715433.9840000001</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>765603.968</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1312699.008</v>
       </c>
     </row>
     <row r="13">
@@ -1671,6 +2089,39 @@
       <c r="AC13" t="n">
         <v>0</v>
       </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1762,6 +2213,39 @@
       <c r="AC14" t="n">
         <v>0</v>
       </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1853,6 +2337,39 @@
       <c r="AC15" t="n">
         <v>0</v>
       </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1942,7 +2459,40 @@
         <v>2840</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>2809</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>21675</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>18300</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>35703</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>296136.992</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>21476</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>2037</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>19373</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>20856</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>26705</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>25141</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -2035,6 +2585,39 @@
       <c r="AC17" t="n">
         <v>0</v>
       </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2126,6 +2709,39 @@
       <c r="AC18" t="n">
         <v>0</v>
       </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2215,7 +2831,40 @@
         <v>144684</v>
       </c>
       <c r="AC19" t="n">
-        <v>64053</v>
+        <v>206604.992</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>154427.008</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>161246</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>178263.008</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>217971.008</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>311236.992</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>483887.008</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>437440.992</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>451312</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>513944.992</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>544560</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>605660.032</v>
       </c>
     </row>
     <row r="20">
@@ -2308,6 +2957,39 @@
       <c r="AC20" t="n">
         <v>0</v>
       </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2399,6 +3081,39 @@
       <c r="AC21" t="n">
         <v>0</v>
       </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2488,7 +3203,40 @@
         <v>2141</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1202</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1191</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1188</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1139</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1107</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1102</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1092</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1113</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>676</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1142</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>612</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>589</v>
       </c>
     </row>
     <row r="23">
@@ -2579,7 +3327,40 @@
         <v>7287436.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>5847</v>
+        <v>9856908.288000001</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>12140028.928</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>12833829.888</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>14798069.76</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>15290953.728</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>15842198.528</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>15303402.496</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>15083106.304</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>16021303.296</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>18637279.232</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>18762539.008</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>19168399.36</v>
       </c>
     </row>
     <row r="24">
@@ -2670,7 +3451,40 @@
         <v>157252</v>
       </c>
       <c r="AC24" t="n">
-        <v>45279</v>
+        <v>168400</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>175044</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>181788</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>200519.008</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>210136</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>287792</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>298068</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>299324.992</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>304534.016</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>336311.008</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>329214.016</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>335703.008</v>
       </c>
     </row>
     <row r="25">
@@ -2763,6 +3577,39 @@
       <c r="AC25" t="n">
         <v>0</v>
       </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2852,7 +3699,40 @@
         <v>14204670.976</v>
       </c>
       <c r="AC26" t="n">
-        <v>717854.976</v>
+        <v>19735812.096</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>21715851.264</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>20955435.008</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>23372857.344</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>26410231.808</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>26248880.128</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>22682038.272</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>21069948.928</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>21734567.936</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>25119492.096</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>26185576.448</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>27684239.36</v>
       </c>
     </row>
     <row r="27">
@@ -2943,7 +3823,40 @@
         <v>2216307.968</v>
       </c>
       <c r="AC27" t="n">
-        <v>44817</v>
+        <v>2296079.872</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>3751193.088</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>3412912.896</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>4495197.184</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>3900986.88</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>5896026.112</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>3727171.072</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>3052301.056</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>3914119.936</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>7455025.152</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>7759725.056</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>7199072.768</v>
       </c>
     </row>
     <row r="28">
@@ -3034,7 +3947,40 @@
         <v>70925</v>
       </c>
       <c r="AC28" t="n">
-        <v>10565</v>
+        <v>73609</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>66977</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>80682</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>75787</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>92790</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>106456</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>129605</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>136440.992</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>151666</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>155655.008</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>142042</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>120107</v>
       </c>
     </row>
     <row r="29">
@@ -3125,7 +4071,40 @@
         <v>1343416.064</v>
       </c>
       <c r="AC29" t="n">
-        <v>30231</v>
+        <v>1360476.032</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>2316751.872</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1725607.936</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>2454362.88</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1654353.024</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>2306508.032</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1111127.04</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>952350.0159999999</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>2146541.952</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>4813621.248</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>4122811.904</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>3666923.008</v>
       </c>
     </row>
     <row r="30">
@@ -3216,7 +4195,40 @@
         <v>47546</v>
       </c>
       <c r="AC30" t="n">
-        <v>1229</v>
+        <v>41165</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>26601</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>25379</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>41630</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>25262</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>64333</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>38664</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>34806</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>58453</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>71861</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>104396</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>72267</v>
       </c>
     </row>
     <row r="31">
@@ -3307,7 +4319,40 @@
         <v>561304</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>607379.968</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>758094.0159999999</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>830084.992</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1145411.968</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1276480</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>2043320.064</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1128706.944</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>998643.008</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>822606.0159999999</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1281458.944</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1493265.024</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1336080</v>
       </c>
     </row>
     <row r="32">
@@ -3400,6 +4445,39 @@
       <c r="AC32" t="n">
         <v>0</v>
       </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3489,6 +4567,39 @@
         <v>81585</v>
       </c>
       <c r="AC33" t="n">
+        <v>46242</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>130121</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>137516</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>90775</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>91418</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>138200</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>90688</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,7 +4691,40 @@
         <v>111531.992</v>
       </c>
       <c r="AC34" t="n">
-        <v>2792</v>
+        <v>167208</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>452648.024</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>613642.976</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>687229.992</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>760684.0159999999</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1237209.024</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1228380.032</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>930060.992</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>734852.992</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1132429.056</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1897209.984</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>2003696</v>
       </c>
     </row>
     <row r="35">
@@ -3673,6 +4817,39 @@
       <c r="AC35" t="n">
         <v>0</v>
       </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3764,6 +4941,39 @@
       <c r="AC36" t="n">
         <v>0</v>
       </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3853,7 +5063,40 @@
         <v>9429517.312000001</v>
       </c>
       <c r="AC37" t="n">
-        <v>2701</v>
+        <v>14261608.448</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>14680187.904</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>14301237.248</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>16023122.944</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>19732168.704</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>17584171.008</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>16123995.136</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>14945550.336</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>14792757.248</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>15142331.392</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>15912032.256</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>17981980.672</v>
       </c>
     </row>
     <row r="38">
@@ -3944,7 +5187,40 @@
         <v>8705673.216</v>
       </c>
       <c r="AC38" t="n">
-        <v>1052</v>
+        <v>13383889.92</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>14007573.504</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>13048671.232</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>14689046.528</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>18364463.104</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>15680659.456</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>14145347.584</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>12973969.408</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>12854250.496</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>14017986.56</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>14693912.576</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>16591582.208</v>
       </c>
     </row>
     <row r="39">
@@ -4037,6 +5313,39 @@
       <c r="AC39" t="n">
         <v>0</v>
       </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4126,7 +5435,40 @@
         <v>364449.984</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>385225.984</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>117145</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>696081.9840000001</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>747747.008</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>768886.976</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1282381.952</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1202920.96</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1129465.984</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1111586.048</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>331959.008</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>424734.016</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>515900.992</v>
       </c>
     </row>
     <row r="41">
@@ -4217,7 +5559,40 @@
         <v>354903.008</v>
       </c>
       <c r="AC41" t="n">
-        <v>493</v>
+        <v>488512</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>550758.0159999999</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>551177.024</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>577657.9840000001</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>589251.968</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>611603.008</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>764596.992</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>829712</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>814360</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>780220.032</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>780929.024</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>861486.0159999999</v>
       </c>
     </row>
     <row r="42">
@@ -4310,6 +5685,39 @@
       <c r="AC42" t="n">
         <v>0</v>
       </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4399,7 +5807,40 @@
         <v>4491</v>
       </c>
       <c r="AC43" t="n">
-        <v>1156</v>
+        <v>3980</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>4712</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>5307</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>8671</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>9566</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>9527</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>11129</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>12403</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>12561</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>12165</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>12456</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>13011</v>
       </c>
     </row>
     <row r="44">
@@ -4492,6 +5933,39 @@
       <c r="AC44" t="n">
         <v>0</v>
       </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4583,6 +6057,39 @@
       <c r="AC45" t="n">
         <v>0</v>
       </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4674,6 +6181,39 @@
       <c r="AC46" t="n">
         <v>0</v>
       </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4763,7 +6303,40 @@
         <v>2558845.952</v>
       </c>
       <c r="AC47" t="n">
-        <v>670337.024</v>
+        <v>3178125.056</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>3284472.064</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>3241285.888</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>2854537.984</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>2777078.016</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>2768683.008</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>2830872.064</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>3072097.024</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>3027689.984</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>2522137.088</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>2513819.904</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>2503185.92</v>
       </c>
     </row>
     <row r="48">
@@ -4854,7 +6427,40 @@
         <v>2009942.016</v>
       </c>
       <c r="AC48" t="n">
-        <v>617331.968</v>
+        <v>2590738.944</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>2590702.08</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>2590776.064</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>2590776.064</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>2590776.064</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>2590776.064</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>2590776.064</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>2590776.064</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>2590776.064</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>2590776.064</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>2590776.064</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>2590776.064</v>
       </c>
     </row>
     <row r="49">
@@ -4945,7 +6551,40 @@
         <v>33851</v>
       </c>
       <c r="AC49" t="n">
-        <v>1278</v>
+        <v>50581</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>48994</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>48984</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>48103</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>47223</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>47214</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>31687</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>31663</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>31527</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>10966</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>10873</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>10870</v>
       </c>
     </row>
     <row r="50">
@@ -5038,6 +6677,39 @@
       <c r="AC50" t="n">
         <v>0</v>
       </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5127,7 +6799,40 @@
         <v>260687.008</v>
       </c>
       <c r="AC51" t="n">
-        <v>45960</v>
+        <v>229090</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>913960</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1118054.016</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1034259.968</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1072979.008</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>992502.976</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1013547.008</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>995681.9840000001</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>929961.024</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>341654.016</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>390203.008</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>432750.016</v>
       </c>
     </row>
     <row r="52">
@@ -5218,7 +6923,40 @@
         <v>283401.984</v>
       </c>
       <c r="AC52" t="n">
-        <v>5767</v>
+        <v>542782.976</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -5309,7 +7047,40 @@
         <v>0</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>-58533</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>-269184</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>-516528</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>-818601.024</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>-933900.032</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>-861809.9840000001</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>-805137.9840000001</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>-546024</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>-524574.0159999999</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>-421259.008</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>-478032</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>-531209.9840000001</v>
       </c>
     </row>
     <row r="54">
@@ -5402,6 +7173,39 @@
       <c r="AC54" t="n">
         <v>0</v>
       </c>
+      <c r="AD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5491,6 +7295,39 @@
         <v>-29036</v>
       </c>
       <c r="AC55" t="n">
+        <v>-176535.008</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5582,6 +7419,39 @@
         <v>0</v>
       </c>
       <c r="AC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5619,6 +7489,17 @@
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
+      <c r="AI57" t="inlineStr"/>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5654,6 +7535,17 @@
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr"/>
+      <c r="AI58" t="inlineStr"/>
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5741,7 +7633,40 @@
         <v>1211499.008</v>
       </c>
       <c r="AC59" t="n">
-        <v>50152</v>
+        <v>1575240.96</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>1740993.792</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1965790.976</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>2307590.912</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>2615771.904</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>2710874.88</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>2703205.888</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>2479143.936</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>2666220.032</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>2493445.12</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>3021646.08</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>3435602.944</v>
       </c>
     </row>
     <row r="60">
@@ -5830,7 +7755,40 @@
         <v>-724273.024</v>
       </c>
       <c r="AC60" t="n">
-        <v>-6660</v>
+        <v>-894033.024</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>-921808.8320000001</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>-1080875.008</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>-1385703.04</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>-1698435.968</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>-1829467.136</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>-1846184.96</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>-1621144.064</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>-1860004.992</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>-2246159.872</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>-2089561.984</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>-2465594.88</v>
       </c>
     </row>
     <row r="61">
@@ -5919,7 +7877,40 @@
         <v>487225.984</v>
       </c>
       <c r="AC61" t="n">
-        <v>43492</v>
+        <v>681208</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>819185.024</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>884915.968</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>921888</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>917336</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>881408.064</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>857020.992</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>858000</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>806214.976</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>247284.992</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>932083.968</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>970008</v>
       </c>
     </row>
     <row r="62">
@@ -6008,7 +7999,40 @@
         <v>-66345</v>
       </c>
       <c r="AC62" t="n">
-        <v>-26282</v>
+        <v>-72922</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>-99741.008</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>-103490</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>-120102</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>-124994</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>-138190</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>-141356</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>-127062</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>-137379.008</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>-149666.992</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>-154172</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>-142164</v>
       </c>
     </row>
     <row r="63">
@@ -6097,7 +8121,40 @@
         <v>-64911</v>
       </c>
       <c r="AC63" t="n">
-        <v>-19385</v>
+        <v>-76050</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>-86762.984</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>-89743</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-89631</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-108956</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-183356.016</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>-151740</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>-150210</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>-149290</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>-206595.008</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>-102537</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>-165536.992</v>
       </c>
     </row>
     <row r="64">
@@ -6186,7 +8243,40 @@
         <v>-6651</v>
       </c>
       <c r="AC64" t="n">
-        <v>0</v>
+        <v>-8219</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>-9304</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>-10547</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>-13713</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>-17154</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>-23921</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>-32960</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>-19870</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>-15415</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>-20080</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>-15808</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>-12427</v>
       </c>
     </row>
     <row r="65">
@@ -6277,6 +8367,39 @@
       <c r="AC65" t="n">
         <v>0</v>
       </c>
+      <c r="AD65" t="n">
+        <v>33791</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>-34094</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>34094</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>-59821</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>59821</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6364,7 +8487,40 @@
         <v>0</v>
       </c>
       <c r="AC66" t="n">
-        <v>-166</v>
+        <v>-21315</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>-50986</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>-30851</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-41417</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>-92735.008</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>-45656</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>-48970</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>-110704</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>-47920</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>-22586</v>
       </c>
     </row>
     <row r="67">
@@ -6455,6 +8611,39 @@
       <c r="AC67" t="n">
         <v>0</v>
       </c>
+      <c r="AD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6542,7 +8731,40 @@
         <v>-67424</v>
       </c>
       <c r="AC68" t="n">
-        <v>6083</v>
+        <v>-132746</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>-208138.016</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>-287287.008</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>-399360</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>-513667.008</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>-501024.992</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>-474680.992</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>-525574.0159999999</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>-542739.008</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>-555381.888</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>-538760</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>-570721.9840000001</v>
       </c>
     </row>
     <row r="69">
@@ -6631,7 +8853,40 @@
         <v>-307323.008</v>
       </c>
       <c r="AC69" t="n">
-        <v>6413</v>
+        <v>209511.008</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>383038.976</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>107671</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>116443</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>123724</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>161250.992</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>140174</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>25985</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>47438</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>59476.984</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>88865</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>91415</v>
       </c>
     </row>
     <row r="70">
@@ -6720,7 +8975,40 @@
         <v>239899.008</v>
       </c>
       <c r="AC70" t="n">
-        <v>-330</v>
+        <v>-342256.992</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>-591176.96</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>-394958.016</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>-515803.008</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>-637390.976</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>-662275.904</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>-614854.976</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>-551558.976</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>-590177.024</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>-614859.1360000001</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>-627625.024</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>-662137.024</v>
       </c>
     </row>
     <row r="71">
@@ -6757,6 +9045,17 @@
       <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
+      <c r="AG71" t="inlineStr"/>
+      <c r="AH71" t="inlineStr"/>
+      <c r="AI71" t="inlineStr"/>
+      <c r="AJ71" t="inlineStr"/>
+      <c r="AK71" t="inlineStr"/>
+      <c r="AL71" t="inlineStr"/>
+      <c r="AM71" t="inlineStr"/>
+      <c r="AN71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6792,6 +9091,17 @@
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr"/>
       <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
+      <c r="AG72" t="inlineStr"/>
+      <c r="AH72" t="inlineStr"/>
+      <c r="AI72" t="inlineStr"/>
+      <c r="AJ72" t="inlineStr"/>
+      <c r="AK72" t="inlineStr"/>
+      <c r="AL72" t="inlineStr"/>
+      <c r="AM72" t="inlineStr"/>
+      <c r="AN72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6827,6 +9137,17 @@
       <c r="AA73" t="inlineStr"/>
       <c r="AB73" t="inlineStr"/>
       <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
+      <c r="AG73" t="inlineStr"/>
+      <c r="AH73" t="inlineStr"/>
+      <c r="AI73" t="inlineStr"/>
+      <c r="AJ73" t="inlineStr"/>
+      <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="inlineStr"/>
+      <c r="AM73" t="inlineStr"/>
+      <c r="AN73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6914,7 +9235,40 @@
         <v>248104</v>
       </c>
       <c r="AC74" t="n">
-        <v>3742</v>
+        <v>369956</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>398043.968</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>362998.016</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>264988</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>111148</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>-23724.992</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>10628</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>-24537</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>-87578</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>-735322.048</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>72887</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>56572</v>
       </c>
     </row>
     <row r="75">
@@ -7003,7 +9357,40 @@
         <v>-26164</v>
       </c>
       <c r="AC75" t="n">
-        <v>4</v>
+        <v>-25051</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>10705</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>-1346</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>-2491</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>2930</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>-9101</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>-6644</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>-1663</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>-5466</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>-3162</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>-22757</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>9287</v>
       </c>
     </row>
     <row r="76">
@@ -7092,7 +9479,40 @@
         <v>-48019</v>
       </c>
       <c r="AC76" t="n">
-        <v>-1599</v>
+        <v>-85524</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>-132092.992</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>-103558</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>-75737</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>-20358</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>50657.992</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>17061</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>8336</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>27324</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>150172</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>-1580</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>-23313</v>
       </c>
     </row>
     <row r="77">
@@ -7129,6 +9549,17 @@
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
+      <c r="AG77" t="inlineStr"/>
+      <c r="AH77" t="inlineStr"/>
+      <c r="AI77" t="inlineStr"/>
+      <c r="AJ77" t="inlineStr"/>
+      <c r="AK77" t="inlineStr"/>
+      <c r="AL77" t="inlineStr"/>
+      <c r="AM77" t="inlineStr"/>
+      <c r="AN77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7164,6 +9595,17 @@
       <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
+      <c r="AG78" t="inlineStr"/>
+      <c r="AH78" t="inlineStr"/>
+      <c r="AI78" t="inlineStr"/>
+      <c r="AJ78" t="inlineStr"/>
+      <c r="AK78" t="inlineStr"/>
+      <c r="AL78" t="inlineStr"/>
+      <c r="AM78" t="inlineStr"/>
+      <c r="AN78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7253,6 +9695,39 @@
       <c r="AC79" t="n">
         <v>0</v>
       </c>
+      <c r="AD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7340,7 +9815,40 @@
         <v>173920.992</v>
       </c>
       <c r="AC80" t="n">
-        <v>2147</v>
+        <v>259380.992</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>276656</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>258094</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>186760</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>93720</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>17832.016</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>21045</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>-17864</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>-65720</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>-588312</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>48550</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>42546</v>
       </c>
     </row>
   </sheetData>
